--- a/Template/Export/Sari_Cases_17.xlsx
+++ b/Template/Export/Sari_Cases_17.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAFQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>last_name_2</t>
   </si>
   <si>
-    <t>date_of_birthday</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -90,18 +87,6 @@
     <t>work_market_live_animals</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>resort</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>urban_rural</t>
   </si>
   <si>
@@ -174,24 +159,12 @@
     <t>puerperium</t>
   </si>
   <si>
-    <t>quarter</t>
-  </si>
-  <si>
     <t>source_vaccine</t>
   </si>
   <si>
     <t>vaccine_influenza</t>
   </si>
   <si>
-    <t>first_dose</t>
-  </si>
-  <si>
-    <t>second_dose</t>
-  </si>
-  <si>
-    <t>Neumococo</t>
-  </si>
-  <si>
     <t>antiviral</t>
   </si>
   <si>
@@ -204,9 +177,6 @@
     <t>risk_factor</t>
   </si>
   <si>
-    <t xml:space="preserve"> chronic_cardiopathy                                     </t>
-  </si>
-  <si>
     <t>diabetes</t>
   </si>
   <si>
@@ -225,9 +195,6 @@
     <t>chronic_renal</t>
   </si>
   <si>
-    <t>inmuno</t>
-  </si>
-  <si>
     <t>cerebral_palsy</t>
   </si>
   <si>
@@ -252,9 +219,6 @@
     <t>prematurity</t>
   </si>
   <si>
-    <t>LBW</t>
-  </si>
-  <si>
     <t xml:space="preserve">lack_of_breastfeeding </t>
   </si>
   <si>
@@ -291,18 +255,9 @@
     <t>cough</t>
   </si>
   <si>
-    <t>dif_breathing</t>
-  </si>
-  <si>
     <t>headache</t>
   </si>
   <si>
-    <t>eruption</t>
-  </si>
-  <si>
-    <t>eruption_location</t>
-  </si>
-  <si>
     <t>muscle_pain</t>
   </si>
   <si>
@@ -333,12 +288,6 @@
     <t>rhinitis</t>
   </si>
   <si>
-    <t>acute_diarrhea</t>
-  </si>
-  <si>
-    <t>chronic_diarrhea</t>
-  </si>
-  <si>
     <t>dizziness</t>
   </si>
   <si>
@@ -354,12 +303,6 @@
     <t>lymphadenopathy</t>
   </si>
   <si>
-    <t>discomfort</t>
-  </si>
-  <si>
-    <t>sickness</t>
-  </si>
-  <si>
     <t>stiff_neck</t>
   </si>
   <si>
@@ -384,9 +327,6 @@
     <t>description_other</t>
   </si>
   <si>
-    <t>salon</t>
-  </si>
-  <si>
     <t>diag_adm_CIE10</t>
   </si>
   <si>
@@ -570,247 +510,307 @@
     <t>identification_test_nphl_3</t>
   </si>
   <si>
-    <t>Neumococo_dose</t>
-  </si>
-  <si>
-    <t>Neumococo_date</t>
-  </si>
-  <si>
     <t>NPHL_ReceiptDate</t>
   </si>
   <si>
-    <t>Processed_process_1</t>
-  </si>
-  <si>
-    <t>Start_process date_1</t>
-  </si>
-  <si>
-    <t>End_process date_1</t>
-  </si>
-  <si>
-    <t>Result_process_1</t>
-  </si>
-  <si>
-    <t>Processed_process_2</t>
-  </si>
-  <si>
-    <t>Observations_process_2</t>
-  </si>
-  <si>
-    <t>Sample_number_process_2</t>
-  </si>
-  <si>
-    <t>Start_process_date_2</t>
-  </si>
-  <si>
-    <t>End_process_date_2</t>
-  </si>
-  <si>
-    <t>Type_process_2</t>
-  </si>
-  <si>
-    <t>Result_process_2</t>
-  </si>
-  <si>
-    <t>Virus_process_2</t>
-  </si>
-  <si>
-    <t>Subtype_process_2</t>
-  </si>
-  <si>
-    <t>Lineage_process_2</t>
-  </si>
-  <si>
-    <t>Processed_process_3</t>
-  </si>
-  <si>
-    <t>Observations_process_1</t>
-  </si>
-  <si>
-    <t>Observations_process_3</t>
-  </si>
-  <si>
-    <t>Observations_process_4</t>
-  </si>
-  <si>
-    <t>Observations_process_5</t>
-  </si>
-  <si>
-    <t>Observations_process_6</t>
-  </si>
-  <si>
-    <t>Lineage_process_6</t>
-  </si>
-  <si>
-    <t>Lineage_process_5</t>
-  </si>
-  <si>
-    <t>Lineage_process_4</t>
-  </si>
-  <si>
-    <t>Lineage_process_3</t>
-  </si>
-  <si>
-    <t>Lineage_process_1</t>
-  </si>
-  <si>
-    <t>Lab_process_2</t>
-  </si>
-  <si>
-    <t>Lab_process_3</t>
-  </si>
-  <si>
-    <t>Lab_process_4</t>
-  </si>
-  <si>
-    <t>Lab_process_5</t>
-  </si>
-  <si>
-    <t>Lab_process_6</t>
-  </si>
-  <si>
-    <t>Subtype_process_6</t>
-  </si>
-  <si>
-    <t>Subtype_process_5</t>
-  </si>
-  <si>
-    <t>Subtype_process_4</t>
-  </si>
-  <si>
-    <t>Subtype_process_3</t>
-  </si>
-  <si>
-    <t>Subtype_process_1</t>
-  </si>
-  <si>
-    <t>Virus_process_6</t>
-  </si>
-  <si>
-    <t>Virus_process_5</t>
-  </si>
-  <si>
-    <t>Virus_process_4</t>
-  </si>
-  <si>
-    <t>Virus_process_3</t>
-  </si>
-  <si>
-    <t>Virus_process_1</t>
-  </si>
-  <si>
-    <t>Result_process_6</t>
-  </si>
-  <si>
-    <t>Result_process_5</t>
-  </si>
-  <si>
-    <t>Result_process_4</t>
-  </si>
-  <si>
-    <t>Result_process_3</t>
-  </si>
-  <si>
-    <t>Type_process_6</t>
-  </si>
-  <si>
-    <t>Type_process_5</t>
-  </si>
-  <si>
-    <t>Type_process_4</t>
-  </si>
-  <si>
-    <t>Type_process_3</t>
-  </si>
-  <si>
-    <t>Type_process_1</t>
-  </si>
-  <si>
-    <t>End_process_date_6</t>
-  </si>
-  <si>
-    <t>End_process_date_5</t>
-  </si>
-  <si>
-    <t>End_process_date_4</t>
-  </si>
-  <si>
-    <t>End_process_date_3</t>
-  </si>
-  <si>
-    <t>Start_process date_3</t>
-  </si>
-  <si>
-    <t>Start_process date_4</t>
-  </si>
-  <si>
-    <t>Start_process date_5</t>
-  </si>
-  <si>
-    <t>Start_process date_6</t>
-  </si>
-  <si>
-    <t>Sample_number_process_6</t>
-  </si>
-  <si>
-    <t>Sample_number_process_5</t>
-  </si>
-  <si>
-    <t>Sample_number_process_4</t>
-  </si>
-  <si>
-    <t>Sample_number_process_3</t>
-  </si>
-  <si>
-    <t>Sample_number_process_1</t>
-  </si>
-  <si>
-    <t>Processed_process_6</t>
-  </si>
-  <si>
-    <t>Processed_process_5</t>
-  </si>
-  <si>
-    <t>Processed_process_4</t>
-  </si>
-  <si>
-    <t>Lab_process_1</t>
-  </si>
-  <si>
-    <t>Res_End_Virus_3</t>
-  </si>
-  <si>
-    <t>Res_End_Linaje_2</t>
-  </si>
-  <si>
-    <t>Res_End_3</t>
-  </si>
-  <si>
-    <t>Res_End_Subtipo_2</t>
-  </si>
-  <si>
-    <t>Res_End_Virus_2</t>
-  </si>
-  <si>
-    <t>Res_End_2</t>
-  </si>
-  <si>
-    <t>Res_End_Linaje</t>
-  </si>
-  <si>
-    <t>Res_End_Virus</t>
-  </si>
-  <si>
-    <t>Res_End</t>
-  </si>
-  <si>
-    <t>Res_End_Subtype</t>
-  </si>
-  <si>
-    <t>Res_End_Subtype_3</t>
-  </si>
-  <si>
-    <t>Res_End_Lineage_3</t>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>trimester</t>
+  </si>
+  <si>
+    <t>first_dose_date</t>
+  </si>
+  <si>
+    <t>second_dose_date</t>
+  </si>
+  <si>
+    <t>pneumococcal_vac.</t>
+  </si>
+  <si>
+    <t>neumococo_date</t>
+  </si>
+  <si>
+    <t>neumococo_dose</t>
+  </si>
+  <si>
+    <t>chronic_heart_disease</t>
+  </si>
+  <si>
+    <t>immunological_treat_or_disease</t>
+  </si>
+  <si>
+    <t>low_birthweight</t>
+  </si>
+  <si>
+    <t>breathing_difficulty</t>
+  </si>
+  <si>
+    <t>rash</t>
+  </si>
+  <si>
+    <t>rash_location</t>
+  </si>
+  <si>
+    <t>acute_diarrhoea</t>
+  </si>
+  <si>
+    <t>chronic_diarrhoea</t>
+  </si>
+  <si>
+    <t>malaise</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>med_department</t>
+  </si>
+  <si>
+    <t>lab_process1</t>
+  </si>
+  <si>
+    <t>process1</t>
+  </si>
+  <si>
+    <t>sample_number_process1</t>
+  </si>
+  <si>
+    <t>process1_observations</t>
+  </si>
+  <si>
+    <t>start_date_process1</t>
+  </si>
+  <si>
+    <t>end_date_process1</t>
+  </si>
+  <si>
+    <t>process1_type</t>
+  </si>
+  <si>
+    <t>process1_result</t>
+  </si>
+  <si>
+    <t>process1_virus</t>
+  </si>
+  <si>
+    <t>process1_subtype</t>
+  </si>
+  <si>
+    <t>process1_lineage</t>
+  </si>
+  <si>
+    <t>lab_process2</t>
+  </si>
+  <si>
+    <t>process2</t>
+  </si>
+  <si>
+    <t>sample_number_process2</t>
+  </si>
+  <si>
+    <t>sample_number_process3</t>
+  </si>
+  <si>
+    <t>sample_number_process4</t>
+  </si>
+  <si>
+    <t>sample_number_process5</t>
+  </si>
+  <si>
+    <t>sample_number_process6</t>
+  </si>
+  <si>
+    <t>process3</t>
+  </si>
+  <si>
+    <t>process4</t>
+  </si>
+  <si>
+    <t>process5</t>
+  </si>
+  <si>
+    <t>process6</t>
+  </si>
+  <si>
+    <t>lab_process3</t>
+  </si>
+  <si>
+    <t>lab_process4</t>
+  </si>
+  <si>
+    <t>lab_process5</t>
+  </si>
+  <si>
+    <t>lab_process6</t>
+  </si>
+  <si>
+    <t>process2_observations</t>
+  </si>
+  <si>
+    <t>process3_observations</t>
+  </si>
+  <si>
+    <t>process4_observations</t>
+  </si>
+  <si>
+    <t>process5_observations</t>
+  </si>
+  <si>
+    <t>process6_observations</t>
+  </si>
+  <si>
+    <t>start_date_process2</t>
+  </si>
+  <si>
+    <t>start_date_process3</t>
+  </si>
+  <si>
+    <t>start_date_process4</t>
+  </si>
+  <si>
+    <t>start_date_process5</t>
+  </si>
+  <si>
+    <t>start_date_process6</t>
+  </si>
+  <si>
+    <t>end_date_process2</t>
+  </si>
+  <si>
+    <t>end_date_process3</t>
+  </si>
+  <si>
+    <t>end_date_process4</t>
+  </si>
+  <si>
+    <t>end_date_process5</t>
+  </si>
+  <si>
+    <t>end_date_process6</t>
+  </si>
+  <si>
+    <t>process2_type</t>
+  </si>
+  <si>
+    <t>process3_type</t>
+  </si>
+  <si>
+    <t>process4_type</t>
+  </si>
+  <si>
+    <t>process5_type</t>
+  </si>
+  <si>
+    <t>process6_type</t>
+  </si>
+  <si>
+    <t>process2_result</t>
+  </si>
+  <si>
+    <t>process3_result</t>
+  </si>
+  <si>
+    <t>process4_result</t>
+  </si>
+  <si>
+    <t>process5_result</t>
+  </si>
+  <si>
+    <t>process6_result</t>
+  </si>
+  <si>
+    <t>process2_virus</t>
+  </si>
+  <si>
+    <t>process3_virus</t>
+  </si>
+  <si>
+    <t>process4_virus</t>
+  </si>
+  <si>
+    <t>process5_virus</t>
+  </si>
+  <si>
+    <t>process6_virus</t>
+  </si>
+  <si>
+    <t>process2_subtype</t>
+  </si>
+  <si>
+    <t>process3_subtype</t>
+  </si>
+  <si>
+    <t>process4_subtype</t>
+  </si>
+  <si>
+    <t>process5_subtype</t>
+  </si>
+  <si>
+    <t>process5_lineage</t>
+  </si>
+  <si>
+    <t>process6_subtype</t>
+  </si>
+  <si>
+    <t>process6_lineage</t>
+  </si>
+  <si>
+    <t>process2_lineage</t>
+  </si>
+  <si>
+    <t>process3_lineage</t>
+  </si>
+  <si>
+    <t>process4_lineage</t>
+  </si>
+  <si>
+    <t>final_result</t>
+  </si>
+  <si>
+    <t>final_res_virus</t>
+  </si>
+  <si>
+    <t>final_res_subtype</t>
+  </si>
+  <si>
+    <t>final_res_lineage</t>
+  </si>
+  <si>
+    <t>final_result2</t>
+  </si>
+  <si>
+    <t>final_res_virus2</t>
+  </si>
+  <si>
+    <t>final_res_subtype2</t>
+  </si>
+  <si>
+    <t>final_res_lineage2</t>
+  </si>
+  <si>
+    <t>final_result3</t>
+  </si>
+  <si>
+    <t>final_res_virus3</t>
+  </si>
+  <si>
+    <t>final_res_subtype3</t>
+  </si>
+  <si>
+    <t>final_res_lineage3</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,16 +840,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,6 +860,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -881,31 +885,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1217,14 +1230,14 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1234,25 +1247,25 @@
     <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" customWidth="1"/>
     <col min="29" max="29" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="36.140625" bestFit="1" customWidth="1"/>
@@ -1262,51 +1275,51 @@
     <col min="49" max="49" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="9" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="17" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.7109375" customWidth="1"/>
     <col min="60" max="60" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="26" customWidth="1"/>
+    <col min="64" max="64" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="29" style="1" customWidth="1"/>
+    <col min="72" max="72" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="16" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="19" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1315,958 +1328,958 @@
     <col min="102" max="102" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="15.42578125" customWidth="1"/>
-    <col min="126" max="126" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="20" style="10" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="19" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="9" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="15" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="12.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="10" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="19" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="16.28515625" style="2" customWidth="1"/>
-    <col min="157" max="157" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="17" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="19.5703125" customWidth="1"/>
-    <col min="169" max="169" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="30.28515625" customWidth="1"/>
-    <col min="175" max="175" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="23.42578125" customWidth="1"/>
-    <col min="177" max="177" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="178" max="178" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="17" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="28" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="22.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="17" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="22.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="17" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="22.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="17" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="22.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="19.85546875" customWidth="1"/>
-    <col min="234" max="234" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="19.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="22.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="20" style="14" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="22" style="12" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="19.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="22.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="22" style="12" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="20.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="19.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="23.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="260" max="261" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="262" max="262" width="25" bestFit="1" customWidth="1"/>
     <col min="263" max="264" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:264" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AG1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AH1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AI1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AK1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AL1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AM1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AN1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AO1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AP1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AR1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AS1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AT1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AU1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AV1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AW1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AX1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AY1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AZ1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="BB1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="BC1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BI1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BK1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BL1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BN1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BO1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BP1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BR1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="BX1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BY1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="CK1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CM1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="CP1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="CQ1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="CR1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="CS1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="CT1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="CU1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="CV1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="CW1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="CX1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CY1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="CZ1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="DC1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DD1" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="DE1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="DG1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="DH1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="DI1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="DJ1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DK1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="BG1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="BY1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CM1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="CP1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="CQ1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="CR1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="CS1" s="7" t="s">
+      <c r="DL1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="DM1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="DN1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="DO1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="DP1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="DQ1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="DR1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DS1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DT1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="DU1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DV1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DW1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DX1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DY1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DZ1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="EA1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="EB1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="EC1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="ED1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="EE1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="DL1" s="7" t="s">
+      <c r="EF1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DM1" s="7" t="s">
+      <c r="EG1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DN1" s="7" t="s">
+      <c r="EH1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="EI1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DP1" s="7" t="s">
+      <c r="EJ1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="DQ1" s="7" t="s">
+      <c r="EK1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="EL1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="DS1" s="7" t="s">
+      <c r="EM1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="EN1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="EO1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="DV1" s="13" t="s">
+      <c r="EP1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="DW1" s="6" t="s">
+      <c r="EQ1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="ER1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="DX1" s="13" t="s">
+      <c r="ES1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="DY1" s="7" t="s">
+      <c r="ET1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="DZ1" s="8" t="s">
+      <c r="EU1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="EA1" s="13" t="s">
+      <c r="EV1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="EB1" s="6" t="s">
+      <c r="EW1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="EC1" s="13" t="s">
+      <c r="EX1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EY1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="EE1" s="13" t="s">
+      <c r="EZ1" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="FA1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="FB1" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="FC1" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="FD1" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="FE1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="FF1" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="FG1" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="FI1" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="FJ1" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="FK1" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="FL1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="FM1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="FN1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="FO1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="FP1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="FQ1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="FR1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="FS1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="FT1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="FU1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="FV1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="FW1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FX1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FY1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="FZ1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="GA1" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="GB1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="GC1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="GD1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="GE1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="GF1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="GG1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="GH1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="GI1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="GJ1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="GK1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="GL1" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="GM1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="GN1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="GO1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="GP1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="GQ1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="GR1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="GS1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="GT1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="GU1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="GW1" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="GX1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="GY1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="GZ1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HA1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="HB1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="HC1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="HD1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="HF1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="HG1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="HH1" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="HI1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="HJ1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="HK1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="HL1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="HM1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="HN1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="HO1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="HP1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="HQ1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="HR1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="HS1" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="HT1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="HV1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="HW1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="HX1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="HY1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="HZ1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="EF1" s="5" t="s">
+      <c r="IA1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="EG1" s="5" t="s">
+      <c r="IB1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="EH1" s="5" t="s">
+      <c r="IC1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="ID1" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="EJ1" s="13" t="s">
+      <c r="IE1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="IF1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="EL1" s="13" t="s">
+      <c r="IG1" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="IH1" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="II1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="EO1" s="13" t="s">
+      <c r="IJ1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="EP1" s="5" t="s">
+      <c r="IK1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="EQ1" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="ER1" s="16" t="s">
+      <c r="IL1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="ES1" s="9" t="s">
+      <c r="IM1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="ET1" s="15" t="s">
+      <c r="IN1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="EU1" s="13" t="s">
+      <c r="IO1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="EV1" s="3" t="s">
+      <c r="IP1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="EW1" s="3" t="s">
+      <c r="IQ1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="EX1" s="13" t="s">
+      <c r="IR1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="EY1" s="3" t="s">
+      <c r="IS1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="EZ1" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="FA1" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="FB1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="FC1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="FD1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="FE1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="FF1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="FG1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="FH1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="FI1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="FJ1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="FK1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="FL1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="FM1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="FN1" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="FO1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="FP1" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="FQ1" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="FR1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="FS1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="FT1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="FU1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="FV1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="FW1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="FX1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="FY1" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="FZ1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="GA1" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="GB1" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="GC1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="GD1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="GE1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="GF1" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="GG1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GH1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="GI1" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="GJ1" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="GK1" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="GL1" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="GM1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="GN1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="GO1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="GP1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="GQ1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="GR1" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="GS1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="GT1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="GU1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="GV1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="GX1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="GY1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="GZ1" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="HA1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="HB1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="HC1" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="HD1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="HE1" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="HF1" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="HG1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="HH1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="HI1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="HJ1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="HK1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="HL1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="HM1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="HN1" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="HO1" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="HP1" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="HQ1" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="HR1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="HS1" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="HT1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="HU1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="HV1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="HW1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="HX1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="HY1" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="HZ1" s="11" t="s">
+      <c r="IT1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="IA1" s="11" t="s">
+      <c r="IU1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="IB1" s="11" t="s">
+      <c r="IV1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="IC1" s="17" t="s">
+      <c r="IW1" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="ID1" s="11" t="s">
+      <c r="IX1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="IE1" s="11" t="s">
+      <c r="IY1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="IF1" s="17" t="s">
+      <c r="IZ1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="IG1" s="11" t="s">
+      <c r="JA1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="IH1" s="11" t="s">
+      <c r="JB1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="II1" s="11" t="s">
+      <c r="JC1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="IJ1" s="11" t="s">
+      <c r="JD1" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="IK1" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="IL1" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="IM1" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="IN1" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="IO1" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="IP1" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="IQ1" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="IR1" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="IS1" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="IT1" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="IU1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="IV1" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="IW1" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="IX1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:264" x14ac:dyDescent="0.25">
@@ -2282,28 +2295,65 @@
       <c r="EZ4"/>
     </row>
     <row r="5" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="BC5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="EK5"/>
       <c r="EZ5"/>
+      <c r="FP5" s="13"/>
+      <c r="FQ5"/>
     </row>
     <row r="6" spans="1:264" x14ac:dyDescent="0.25">
       <c r="EK6"/>
       <c r="EZ6"/>
+      <c r="FP6" s="13"/>
+      <c r="FQ6"/>
     </row>
     <row r="7" spans="1:264" x14ac:dyDescent="0.25">
       <c r="EK7"/>
       <c r="EZ7"/>
+      <c r="FP7" s="13"/>
+      <c r="FQ7"/>
     </row>
     <row r="8" spans="1:264" x14ac:dyDescent="0.25">
       <c r="EK8"/>
       <c r="EZ8"/>
+      <c r="FP8" s="13"/>
+      <c r="FQ8"/>
+      <c r="GA8"/>
+      <c r="GB8"/>
+      <c r="GL8"/>
+      <c r="GM8"/>
+      <c r="GW8"/>
+      <c r="GX8"/>
+      <c r="HH8"/>
+      <c r="HI8"/>
+      <c r="HS8"/>
+      <c r="HT8"/>
     </row>
     <row r="9" spans="1:264" x14ac:dyDescent="0.25">
       <c r="EK9"/>
       <c r="EZ9"/>
+      <c r="FP9" s="13"/>
+      <c r="FQ9"/>
     </row>
     <row r="10" spans="1:264" x14ac:dyDescent="0.25">
       <c r="EK10"/>
       <c r="EZ10"/>
+      <c r="FP10" s="13"/>
+      <c r="FQ10"/>
     </row>
     <row r="11" spans="1:264" x14ac:dyDescent="0.25">
       <c r="EK11"/>

--- a/Template/Export/Sari_Cases_17.xlsx
+++ b/Template/Export/Sari_Cases_17.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="267">
   <si>
     <t>ID</t>
   </si>
@@ -811,6 +806,15 @@
   </si>
   <si>
     <t>final_res_lineage3</t>
+  </si>
+  <si>
+    <t>genetic_group</t>
+  </si>
+  <si>
+    <t>genetic_group2</t>
+  </si>
+  <si>
+    <t>genetic_group3</t>
   </si>
 </sst>
 </file>
@@ -841,7 +845,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +876,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -885,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -906,6 +916,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,7 +942,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -973,7 +984,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,7 +1019,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,14 +1228,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JD13"/>
+  <dimension ref="A1:JG13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1383,112 +1394,115 @@
     <col min="157" max="157" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="17" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="19.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="19.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="17" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="19.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="22.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="250" max="250" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="23.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="260" max="261" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="25" bestFit="1" customWidth="1"/>
-    <col min="263" max="264" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="263" max="264" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="25" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:267" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1966,335 +1980,344 @@
       <c r="FC1" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="FD1" s="19" t="s">
+      <c r="FD1" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="FE1" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="FE1" s="19" t="s">
+      <c r="FF1" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="FF1" s="19" t="s">
+      <c r="FG1" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="FG1" s="19" t="s">
+      <c r="FH1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="FH1" s="18" t="s">
+      <c r="FI1" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="FJ1" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="FI1" s="18" t="s">
+      <c r="FK1" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="FJ1" s="18" t="s">
+      <c r="FL1" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="FK1" s="18" t="s">
+      <c r="FM1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FN1" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="FO1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="FP1" s="14" t="s">
+      <c r="FS1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GB1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="GA1" s="14" t="s">
+      <c r="GD1" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GG1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GI1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GK1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GL1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GM1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GN1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="GL1" s="14" t="s">
+      <c r="GO1" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GP1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GR1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GS1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GT1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GU1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GV1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GW1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GX1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GY1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="GW1" s="14" t="s">
+      <c r="GZ1" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="HA1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="HB1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HC1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HD1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HE1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HF1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HG1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HH1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HI1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="HH1" s="14" t="s">
+      <c r="HK1" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HL1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HM1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HN1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HO1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HP1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HQ1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HR1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HS1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HT1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HU1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="HS1" s="14" t="s">
+      <c r="HV1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HW1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HX1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="HY1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="HZ1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="IA1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="IB1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="HZ1" s="17" t="s">
+      <c r="IC1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="IA1" s="17" t="s">
+      <c r="ID1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="IB1" s="17" t="s">
+      <c r="IE1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="IC1" s="9" t="s">
+      <c r="IF1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="ID1" s="17" t="s">
+      <c r="IG1" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="IE1" s="17" t="s">
+      <c r="IH1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="IF1" s="9" t="s">
+      <c r="II1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="IG1" s="17" t="s">
+      <c r="IJ1" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="IH1" s="17" t="s">
+      <c r="IK1" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="II1" s="17" t="s">
+      <c r="IL1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="IJ1" s="17" t="s">
+      <c r="IM1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="IK1" s="17" t="s">
+      <c r="IN1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="IL1" s="17" t="s">
+      <c r="IO1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="IM1" s="17" t="s">
+      <c r="IP1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="IN1" s="17" t="s">
+      <c r="IQ1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="IO1" s="17" t="s">
+      <c r="IR1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="IP1" s="17" t="s">
+      <c r="IS1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="IQ1" s="17" t="s">
+      <c r="IT1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="IR1" s="17" t="s">
+      <c r="IU1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="IS1" s="17" t="s">
+      <c r="IV1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="IT1" s="17" t="s">
+      <c r="IW1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="IU1" s="17" t="s">
+      <c r="IX1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="IV1" s="17" t="s">
+      <c r="IY1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="IW1" s="17" t="s">
+      <c r="IZ1" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="IX1" s="17" t="s">
+      <c r="JA1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="IY1" s="2" t="s">
+      <c r="JB1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="IZ1" s="2" t="s">
+      <c r="JC1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="JA1" s="2" t="s">
+      <c r="JD1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="JB1" s="2" t="s">
+      <c r="JE1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="JC1" s="2" t="s">
+      <c r="JF1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="JD1" s="2" t="s">
+      <c r="JG1" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK2"/>
       <c r="EZ2"/>
     </row>
-    <row r="3" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK3"/>
       <c r="EZ3"/>
     </row>
-    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK4"/>
       <c r="EZ4"/>
     </row>
-    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:267" x14ac:dyDescent="0.25">
       <c r="BC5" s="9" t="s">
         <v>170</v>
       </c>
@@ -2312,58 +2335,58 @@
       </c>
       <c r="EK5"/>
       <c r="EZ5"/>
-      <c r="FP5" s="13"/>
-      <c r="FQ5"/>
+      <c r="FS5" s="13"/>
+      <c r="FT5"/>
     </row>
-    <row r="6" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK6"/>
       <c r="EZ6"/>
-      <c r="FP6" s="13"/>
-      <c r="FQ6"/>
+      <c r="FS6" s="13"/>
+      <c r="FT6"/>
     </row>
-    <row r="7" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK7"/>
       <c r="EZ7"/>
-      <c r="FP7" s="13"/>
-      <c r="FQ7"/>
+      <c r="FS7" s="13"/>
+      <c r="FT7"/>
     </row>
-    <row r="8" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK8"/>
       <c r="EZ8"/>
-      <c r="FP8" s="13"/>
-      <c r="FQ8"/>
-      <c r="GA8"/>
-      <c r="GB8"/>
-      <c r="GL8"/>
-      <c r="GM8"/>
-      <c r="GW8"/>
-      <c r="GX8"/>
-      <c r="HH8"/>
-      <c r="HI8"/>
-      <c r="HS8"/>
-      <c r="HT8"/>
+      <c r="FS8" s="13"/>
+      <c r="FT8"/>
+      <c r="GD8"/>
+      <c r="GE8"/>
+      <c r="GO8"/>
+      <c r="GP8"/>
+      <c r="GZ8"/>
+      <c r="HA8"/>
+      <c r="HK8"/>
+      <c r="HL8"/>
+      <c r="HV8"/>
+      <c r="HW8"/>
     </row>
-    <row r="9" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK9"/>
       <c r="EZ9"/>
-      <c r="FP9" s="13"/>
-      <c r="FQ9"/>
+      <c r="FS9" s="13"/>
+      <c r="FT9"/>
     </row>
-    <row r="10" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK10"/>
       <c r="EZ10"/>
-      <c r="FP10" s="13"/>
-      <c r="FQ10"/>
+      <c r="FS10" s="13"/>
+      <c r="FT10"/>
     </row>
-    <row r="11" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK11"/>
       <c r="EZ11"/>
     </row>
-    <row r="12" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK12"/>
       <c r="EZ12"/>
     </row>
-    <row r="13" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:267" x14ac:dyDescent="0.25">
       <c r="EK13"/>
       <c r="EZ13"/>
     </row>

--- a/Template/Export/Sari_Cases_17.xlsx
+++ b/Template/Export/Sari_Cases_17.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
   <si>
     <t>ID</t>
   </si>
@@ -815,12 +820,18 @@
   </si>
   <si>
     <t>genetic_group3</t>
+  </si>
+  <si>
+    <t>sample_temperature</t>
+  </si>
+  <si>
+    <t>ICU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
@@ -845,7 +856,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +893,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -895,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -917,6 +934,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,7 +961,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -984,7 +1003,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,7 +1038,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1228,14 +1247,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JG13"/>
+  <dimension ref="A1:JJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1365,144 +1384,147 @@
     <col min="128" max="128" width="20" style="10" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="19" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="9" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="15" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="10" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="19" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="17" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="19.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="19.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="6.42578125" style="1" customWidth="1"/>
+    <col min="132" max="132" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="15" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="10" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="16.7109375" style="8" customWidth="1"/>
+    <col min="155" max="155" width="18.85546875" style="7" customWidth="1"/>
+    <col min="156" max="156" width="19" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="17" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="19.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="22.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="253" max="253" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="23.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="263" max="264" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="25" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="25" bestFit="1" customWidth="1"/>
+    <col min="269" max="270" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:267" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:270" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1894,430 +1916,439 @@
         <v>107</v>
       </c>
       <c r="EA1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="EB1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="EB1" s="5" t="s">
+      <c r="EC1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="EC1" s="9" t="s">
+      <c r="ED1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="EE1" s="9" t="s">
+      <c r="EF1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="EJ1" s="9" t="s">
+      <c r="EK1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="EL1" s="9" t="s">
+      <c r="EM1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="EO1" s="9" t="s">
+      <c r="EP1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="EQ1" s="11" t="s">
+      <c r="ER1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="ER1" s="12" t="s">
+      <c r="ES1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="ES1" s="6" t="s">
+      <c r="ET1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="ET1" s="11" t="s">
+      <c r="EU1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="EU1" s="9" t="s">
+      <c r="EV1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EW1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EX1" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="EY1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="EZ1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="EX1" s="9" t="s">
+      <c r="FA1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="FB1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="EZ1" s="18" t="s">
+      <c r="FC1" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="FA1" s="18" t="s">
+      <c r="FD1" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="FB1" s="18" t="s">
+      <c r="FE1" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="FC1" s="18" t="s">
+      <c r="FF1" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="FD1" s="20" t="s">
+      <c r="FG1" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="FE1" s="19" t="s">
+      <c r="FH1" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="FF1" s="19" t="s">
+      <c r="FI1" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="FG1" s="19" t="s">
+      <c r="FJ1" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="FH1" s="19" t="s">
+      <c r="FK1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="FI1" s="19" t="s">
+      <c r="FL1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="FJ1" s="18" t="s">
+      <c r="FM1" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="FK1" s="18" t="s">
+      <c r="FN1" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="FL1" s="18" t="s">
+      <c r="FO1" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="FM1" s="18" t="s">
+      <c r="FP1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="FN1" s="20" t="s">
+      <c r="FQ1" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="FS1" s="14" t="s">
+      <c r="FV1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GB1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GD1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="GD1" s="14" t="s">
+      <c r="GG1" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GI1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GK1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GL1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GM1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GN1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GO1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GP1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="GO1" s="14" t="s">
+      <c r="GR1" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GS1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GT1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GU1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GV1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GW1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GX1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GY1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="GZ1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="HA1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="HB1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="GZ1" s="14" t="s">
+      <c r="HC1" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HD1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HE1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HF1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HG1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HH1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HI1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HK1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HL1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HM1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="HK1" s="14" t="s">
+      <c r="HN1" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HO1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HP1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HQ1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HR1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HS1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HT1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HU1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HV1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HW1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HX1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="HV1" s="14" t="s">
+      <c r="HY1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="HZ1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="IA1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="IB1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="HZ1" s="2" t="s">
+      <c r="IC1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="IA1" s="2" t="s">
+      <c r="ID1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="IB1" s="2" t="s">
+      <c r="IE1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="IC1" s="17" t="s">
+      <c r="IF1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="ID1" s="17" t="s">
+      <c r="IG1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="IE1" s="17" t="s">
+      <c r="IH1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="IF1" s="9" t="s">
+      <c r="II1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="IG1" s="17" t="s">
+      <c r="IJ1" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="IH1" s="17" t="s">
+      <c r="IK1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="II1" s="9" t="s">
+      <c r="IL1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="IJ1" s="17" t="s">
+      <c r="IM1" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="IK1" s="17" t="s">
+      <c r="IN1" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="IL1" s="17" t="s">
+      <c r="IO1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="IM1" s="17" t="s">
+      <c r="IP1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="IN1" s="17" t="s">
+      <c r="IQ1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="IO1" s="17" t="s">
+      <c r="IR1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="IP1" s="17" t="s">
+      <c r="IS1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="IQ1" s="17" t="s">
+      <c r="IT1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="IR1" s="17" t="s">
+      <c r="IU1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="IS1" s="17" t="s">
+      <c r="IV1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="IT1" s="17" t="s">
+      <c r="IW1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="IU1" s="17" t="s">
+      <c r="IX1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="IV1" s="17" t="s">
+      <c r="IY1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="IW1" s="17" t="s">
+      <c r="IZ1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="IX1" s="17" t="s">
+      <c r="JA1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="IY1" s="17" t="s">
+      <c r="JB1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="IZ1" s="17" t="s">
+      <c r="JC1" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="JA1" s="17" t="s">
+      <c r="JD1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="JB1" s="2" t="s">
+      <c r="JE1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="JC1" s="2" t="s">
+      <c r="JF1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="JD1" s="2" t="s">
+      <c r="JG1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="JE1" s="2" t="s">
+      <c r="JH1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="JF1" s="2" t="s">
+      <c r="JI1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="JG1" s="2" t="s">
+      <c r="JJ1" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK2"/>
-      <c r="EZ2"/>
+    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL2"/>
+      <c r="FC2"/>
     </row>
-    <row r="3" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK3"/>
-      <c r="EZ3"/>
+    <row r="3" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL3"/>
+      <c r="FC3"/>
     </row>
-    <row r="4" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK4"/>
-      <c r="EZ4"/>
+    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL4"/>
+      <c r="FC4"/>
     </row>
-    <row r="5" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
       <c r="BC5" s="9" t="s">
         <v>170</v>
       </c>
@@ -2333,62 +2364,62 @@
       <c r="BG5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="EK5"/>
-      <c r="EZ5"/>
-      <c r="FS5" s="13"/>
-      <c r="FT5"/>
+      <c r="EL5"/>
+      <c r="FC5"/>
+      <c r="FV5" s="13"/>
+      <c r="FW5"/>
     </row>
-    <row r="6" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK6"/>
-      <c r="EZ6"/>
-      <c r="FS6" s="13"/>
-      <c r="FT6"/>
+    <row r="6" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL6"/>
+      <c r="FC6"/>
+      <c r="FV6" s="13"/>
+      <c r="FW6"/>
     </row>
-    <row r="7" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK7"/>
-      <c r="EZ7"/>
-      <c r="FS7" s="13"/>
-      <c r="FT7"/>
+    <row r="7" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL7"/>
+      <c r="FC7"/>
+      <c r="FV7" s="13"/>
+      <c r="FW7"/>
     </row>
-    <row r="8" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK8"/>
-      <c r="EZ8"/>
-      <c r="FS8" s="13"/>
-      <c r="FT8"/>
-      <c r="GD8"/>
-      <c r="GE8"/>
-      <c r="GO8"/>
-      <c r="GP8"/>
-      <c r="GZ8"/>
-      <c r="HA8"/>
-      <c r="HK8"/>
-      <c r="HL8"/>
-      <c r="HV8"/>
-      <c r="HW8"/>
+    <row r="8" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL8"/>
+      <c r="FC8"/>
+      <c r="FV8" s="13"/>
+      <c r="FW8"/>
+      <c r="GG8"/>
+      <c r="GH8"/>
+      <c r="GR8"/>
+      <c r="GS8"/>
+      <c r="HC8"/>
+      <c r="HD8"/>
+      <c r="HN8"/>
+      <c r="HO8"/>
+      <c r="HY8"/>
+      <c r="HZ8"/>
     </row>
-    <row r="9" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK9"/>
-      <c r="EZ9"/>
-      <c r="FS9" s="13"/>
-      <c r="FT9"/>
+    <row r="9" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL9"/>
+      <c r="FC9"/>
+      <c r="FV9" s="13"/>
+      <c r="FW9"/>
     </row>
-    <row r="10" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK10"/>
-      <c r="EZ10"/>
-      <c r="FS10" s="13"/>
-      <c r="FT10"/>
+    <row r="10" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL10"/>
+      <c r="FC10"/>
+      <c r="FV10" s="13"/>
+      <c r="FW10"/>
     </row>
-    <row r="11" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK11"/>
-      <c r="EZ11"/>
+    <row r="11" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL11"/>
+      <c r="FC11"/>
     </row>
-    <row r="12" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK12"/>
-      <c r="EZ12"/>
+    <row r="12" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL12"/>
+      <c r="FC12"/>
     </row>
-    <row r="13" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="EK13"/>
-      <c r="EZ13"/>
+    <row r="13" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="EL13"/>
+      <c r="FC13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Export/Sari_Cases_17.xlsx
+++ b/Template/Export/Sari_Cases_17.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFA7B4-7859-4523-95D8-974E05B969A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="10320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -826,12 +835,60 @@
   </si>
   <si>
     <t>ICU</t>
+  </si>
+  <si>
+    <t>reason_not_sampling</t>
+  </si>
+  <si>
+    <t>reason_not_sampling_other</t>
+  </si>
+  <si>
+    <t>health_center_case_generating</t>
+  </si>
+  <si>
+    <t>why_not_processed_other</t>
+  </si>
+  <si>
+    <t>process1_other_virus</t>
+  </si>
+  <si>
+    <t>process1_other2_virus</t>
+  </si>
+  <si>
+    <t>process2_other_virus</t>
+  </si>
+  <si>
+    <t>process2_other2_virus</t>
+  </si>
+  <si>
+    <t>process3_other_virus</t>
+  </si>
+  <si>
+    <t>process3_other2_virus</t>
+  </si>
+  <si>
+    <t>process4_other_virus</t>
+  </si>
+  <si>
+    <t>process4_other2_virus</t>
+  </si>
+  <si>
+    <t>process5_other_virus</t>
+  </si>
+  <si>
+    <t>process5_other2_virus</t>
+  </si>
+  <si>
+    <t>process6_other_virus</t>
+  </si>
+  <si>
+    <t>process6_other2_virus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
@@ -961,7 +1018,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1036,6 +1093,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1071,6 +1145,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1246,285 +1337,295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.140625" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.7109375" customWidth="1"/>
-    <col min="60" max="60" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="29" style="1" customWidth="1"/>
-    <col min="72" max="72" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="16" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="25" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="15.42578125" customWidth="1"/>
-    <col min="126" max="126" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="19" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="6.42578125" style="1" customWidth="1"/>
-    <col min="132" max="132" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="15" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="10" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="16.7109375" style="8" customWidth="1"/>
-    <col min="155" max="155" width="18.85546875" style="7" customWidth="1"/>
-    <col min="156" max="156" width="19" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="17" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="19.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="19.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="20.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="25" bestFit="1" customWidth="1"/>
-    <col min="269" max="270" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.140625" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" customWidth="1"/>
+    <col min="30" max="30" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.7109375" customWidth="1"/>
+    <col min="61" max="61" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="29" style="1" customWidth="1"/>
+    <col min="73" max="73" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="15" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="25" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="8" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="20" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.42578125" customWidth="1"/>
+    <col min="127" max="127" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="19" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="6.42578125" style="1" customWidth="1"/>
+    <col min="133" max="133" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="19.28515625" customWidth="1"/>
+    <col min="143" max="143" width="24.5703125" customWidth="1"/>
+    <col min="144" max="144" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="15" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="10" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="16.7109375" style="8" customWidth="1"/>
+    <col min="158" max="158" width="18.85546875" style="7" customWidth="1"/>
+    <col min="159" max="159" width="19" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="187" max="188" width="15.42578125" customWidth="1"/>
+    <col min="189" max="189" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="17" bestFit="1" customWidth="1"/>
+    <col min="200" max="201" width="17" customWidth="1"/>
+    <col min="202" max="202" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="213" max="214" width="14.7109375" customWidth="1"/>
+    <col min="215" max="215" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="226" max="227" width="14.7109375" customWidth="1"/>
+    <col min="228" max="228" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="239" max="240" width="14.7109375" customWidth="1"/>
+    <col min="241" max="241" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="252" max="253" width="14.7109375" customWidth="1"/>
+    <col min="254" max="254" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="19.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="23.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="282" max="283" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="25" bestFit="1" customWidth="1"/>
+    <col min="285" max="286" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:286" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1532,894 +1633,932 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AX1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BW1" s="15" t="s">
+      <c r="BX1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BX1" s="15" t="s">
+      <c r="BY1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BY1" s="15" t="s">
+      <c r="BZ1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CK1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CL1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="CM1" s="15" t="s">
+      <c r="CN1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="CP1" s="15" t="s">
+      <c r="CQ1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="CQ1" s="15" t="s">
+      <c r="CR1" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="CR1" s="15" t="s">
+      <c r="CS1" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="CS1" s="15" t="s">
+      <c r="CT1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="CT1" s="15" t="s">
+      <c r="CU1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="CU1" s="15" t="s">
+      <c r="CV1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="CV1" s="15" t="s">
+      <c r="CW1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="CW1" s="15" t="s">
+      <c r="CX1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="CX1" s="15" t="s">
+      <c r="CY1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="CY1" s="15" t="s">
+      <c r="CZ1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="CZ1" s="15" t="s">
+      <c r="DA1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="DA1" s="15" t="s">
+      <c r="DB1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="DB1" s="15" t="s">
+      <c r="DC1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="DC1" s="15" t="s">
+      <c r="DD1" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="DD1" s="15" t="s">
+      <c r="DE1" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="DE1" s="15" t="s">
+      <c r="DF1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="DF1" s="15" t="s">
+      <c r="DG1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="DG1" s="15" t="s">
+      <c r="DH1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="DH1" s="15" t="s">
+      <c r="DI1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="DI1" s="15" t="s">
+      <c r="DJ1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="DJ1" s="15" t="s">
+      <c r="DK1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="DK1" s="15" t="s">
+      <c r="DL1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="DL1" s="15" t="s">
+      <c r="DM1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="DM1" s="15" t="s">
+      <c r="DN1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="DN1" s="15" t="s">
+      <c r="DO1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="DO1" s="15" t="s">
+      <c r="DP1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="DP1" s="15" t="s">
+      <c r="DQ1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="DQ1" s="15" t="s">
+      <c r="DR1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="DR1" s="15" t="s">
+      <c r="DS1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="DS1" s="15" t="s">
+      <c r="DT1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="DV1" s="9" t="s">
+      <c r="DW1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="DX1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DX1" s="9" t="s">
+      <c r="DY1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="DY1" s="15" t="s">
+      <c r="DZ1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="DZ1" s="16" t="s">
+      <c r="EA1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="EA1" s="9" t="s">
+      <c r="EB1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="EB1" s="9" t="s">
+      <c r="EC1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="ED1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="ED1" s="9" t="s">
+      <c r="EE1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="EF1" s="9" t="s">
+      <c r="EG1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EK1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="EK1" s="9" t="s">
+      <c r="EL1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="EN1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="EM1" s="9" t="s">
+      <c r="EP1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="ER1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="EP1" s="9" t="s">
+      <c r="ES1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="ET1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="ER1" s="11" t="s">
+      <c r="EU1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="ES1" s="12" t="s">
+      <c r="EV1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="ET1" s="6" t="s">
+      <c r="EW1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="EU1" s="11" t="s">
+      <c r="EX1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="EV1" s="21" t="s">
+      <c r="EY1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="EW1" s="22" t="s">
+      <c r="EZ1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="EX1" s="22" t="s">
+      <c r="FA1" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="EY1" s="22" t="s">
+      <c r="FB1" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="EZ1" s="22" t="s">
+      <c r="FC1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="FA1" s="21" t="s">
+      <c r="FD1" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="FE1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="FB1" s="22" t="s">
+      <c r="FF1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="FC1" s="18" t="s">
+      <c r="FG1" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="FD1" s="18" t="s">
+      <c r="FH1" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="FE1" s="18" t="s">
+      <c r="FI1" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="FF1" s="18" t="s">
+      <c r="FJ1" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="FG1" s="20" t="s">
+      <c r="FK1" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="FH1" s="19" t="s">
+      <c r="FL1" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="FI1" s="19" t="s">
+      <c r="FM1" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="FJ1" s="19" t="s">
+      <c r="FN1" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="FK1" s="19" t="s">
+      <c r="FO1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="FL1" s="19" t="s">
+      <c r="FP1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="FM1" s="18" t="s">
+      <c r="FQ1" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="FN1" s="18" t="s">
+      <c r="FR1" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="FO1" s="18" t="s">
+      <c r="FS1" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="FP1" s="18" t="s">
+      <c r="FT1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="FQ1" s="20" t="s">
+      <c r="FU1" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="FV1" s="14" t="s">
+      <c r="FZ1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GB1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GD1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="GF1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="GG1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GI1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GK1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GL1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="GG1" s="14" t="s">
+      <c r="GM1" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GN1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GO1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GP1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GR1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="GS1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="GT1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GU1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GV1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GW1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GX1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GY1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="GR1" s="14" t="s">
+      <c r="GZ1" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="HA1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="HB1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="HC1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="HD1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="HE1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="HF1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="HG1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="HH1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="HI1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HK1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HL1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="HC1" s="14" t="s">
+      <c r="HM1" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HN1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HO1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HP1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HQ1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HR1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="HS1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="HT1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HU1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HV1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HW1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HX1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HY1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="HN1" s="14" t="s">
+      <c r="HZ1" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="IA1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="IB1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="IC1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="ID1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="IE1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="IF1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="IG1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="IH1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="II1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="IJ1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="IK1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="IL1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="HY1" s="14" t="s">
+      <c r="IM1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="HZ1" s="2" t="s">
+      <c r="IN1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="IA1" s="2" t="s">
+      <c r="IO1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="IB1" s="2" t="s">
+      <c r="IP1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="IC1" s="2" t="s">
+      <c r="IQ1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="ID1" s="2" t="s">
+      <c r="IR1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="IS1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="IT1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="IE1" s="2" t="s">
+      <c r="IU1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="IF1" s="17" t="s">
+      <c r="IV1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="IG1" s="17" t="s">
+      <c r="IW1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="IH1" s="17" t="s">
+      <c r="IX1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="II1" s="9" t="s">
+      <c r="IY1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="IJ1" s="17" t="s">
+      <c r="IZ1" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="IK1" s="17" t="s">
+      <c r="JA1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="IL1" s="9" t="s">
+      <c r="JB1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="IM1" s="17" t="s">
+      <c r="JC1" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="IN1" s="17" t="s">
+      <c r="JD1" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="IO1" s="17" t="s">
+      <c r="JE1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="IP1" s="17" t="s">
+      <c r="JF1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="IQ1" s="17" t="s">
+      <c r="JG1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="IR1" s="17" t="s">
+      <c r="JH1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="IS1" s="17" t="s">
+      <c r="JI1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="IT1" s="17" t="s">
+      <c r="JJ1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="IU1" s="17" t="s">
+      <c r="JK1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="IV1" s="17" t="s">
+      <c r="JL1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="IW1" s="17" t="s">
+      <c r="JM1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="IX1" s="17" t="s">
+      <c r="JN1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="IY1" s="17" t="s">
+      <c r="JO1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="IZ1" s="17" t="s">
+      <c r="JP1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="JA1" s="17" t="s">
+      <c r="JQ1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="JB1" s="17" t="s">
+      <c r="JR1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="JC1" s="17" t="s">
+      <c r="JS1" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="JD1" s="17" t="s">
+      <c r="JT1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="JE1" s="2" t="s">
+      <c r="JU1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="JF1" s="2" t="s">
+      <c r="JV1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="JG1" s="2" t="s">
+      <c r="JW1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="JH1" s="2" t="s">
+      <c r="JX1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="JI1" s="2" t="s">
+      <c r="JY1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="JJ1" s="2" t="s">
+      <c r="JZ1" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL2"/>
-      <c r="FC2"/>
+    <row r="2" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO2"/>
+      <c r="FG2"/>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL3"/>
-      <c r="FC3"/>
+    <row r="3" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO3"/>
+      <c r="FG3"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL4"/>
-      <c r="FC4"/>
+    <row r="4" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO4"/>
+      <c r="FG4"/>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="BC5" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD5" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF5" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="BG5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="EL5"/>
-      <c r="FC5"/>
-      <c r="FV5" s="13"/>
-      <c r="FW5"/>
+    <row r="5" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="2"/>
+      <c r="EO5"/>
+      <c r="FG5"/>
+      <c r="FZ5" s="13"/>
+      <c r="GA5"/>
     </row>
-    <row r="6" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL6"/>
-      <c r="FC6"/>
-      <c r="FV6" s="13"/>
-      <c r="FW6"/>
+    <row r="6" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO6"/>
+      <c r="FG6"/>
+      <c r="FZ6" s="13"/>
+      <c r="GA6"/>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL7"/>
-      <c r="FC7"/>
-      <c r="FV7" s="13"/>
-      <c r="FW7"/>
+    <row r="7" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO7"/>
+      <c r="FG7"/>
+      <c r="FZ7" s="13"/>
+      <c r="GA7"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL8"/>
-      <c r="FC8"/>
-      <c r="FV8" s="13"/>
-      <c r="FW8"/>
-      <c r="GG8"/>
-      <c r="GH8"/>
-      <c r="GR8"/>
-      <c r="GS8"/>
-      <c r="HC8"/>
-      <c r="HD8"/>
+    <row r="8" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO8"/>
+      <c r="FG8"/>
+      <c r="FZ8" s="13"/>
+      <c r="GA8"/>
+      <c r="GM8"/>
+      <c r="GN8"/>
+      <c r="GZ8"/>
+      <c r="HA8"/>
+      <c r="HM8"/>
       <c r="HN8"/>
-      <c r="HO8"/>
-      <c r="HY8"/>
       <c r="HZ8"/>
+      <c r="IA8"/>
+      <c r="IM8"/>
+      <c r="IN8"/>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL9"/>
-      <c r="FC9"/>
-      <c r="FV9" s="13"/>
-      <c r="FW9"/>
+    <row r="9" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO9"/>
+      <c r="FG9"/>
+      <c r="FZ9" s="13"/>
+      <c r="GA9"/>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL10"/>
-      <c r="FC10"/>
-      <c r="FV10" s="13"/>
-      <c r="FW10"/>
+    <row r="10" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO10"/>
+      <c r="FG10"/>
+      <c r="FZ10" s="13"/>
+      <c r="GA10"/>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL11"/>
-      <c r="FC11"/>
+    <row r="11" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO11"/>
+      <c r="FG11"/>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL12"/>
-      <c r="FC12"/>
+    <row r="12" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO12"/>
+      <c r="FG12"/>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="EL13"/>
-      <c r="FC13"/>
+    <row r="13" spans="1:286" x14ac:dyDescent="0.25">
+      <c r="EO13"/>
+      <c r="FG13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Export/Sari_Cases_17.xlsx
+++ b/Template/Export/Sari_Cases_17.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFA7B4-7859-4523-95D8-974E05B969A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="290">
   <si>
     <t>ID</t>
   </si>
@@ -883,12 +882,27 @@
   </si>
   <si>
     <t>process6_other2_virus</t>
+  </si>
+  <si>
+    <t>Asymptomatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinorrhoea </t>
+  </si>
+  <si>
+    <t>Odinophagia</t>
+  </si>
+  <si>
+    <t>Anosmy</t>
+  </si>
+  <si>
+    <t>Dysgeusia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
@@ -896,7 +910,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +921,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -969,30 +991,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,7 +1077,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1093,23 +1152,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1145,23 +1187,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1337,29 +1362,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JZ13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:KE13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1400,13 +1425,13 @@
     <col min="53" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="17" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15" style="7" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="16.7109375" customWidth="1"/>
     <col min="61" max="61" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="21.140625" bestFit="1" customWidth="1"/>
@@ -1423,1142 +1448,1162 @@
     <col min="76" max="76" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="15" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="25" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="8" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="20" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.42578125" customWidth="1"/>
-    <col min="127" max="127" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="19" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="6.42578125" style="1" customWidth="1"/>
-    <col min="133" max="133" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="9" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="19.28515625" customWidth="1"/>
-    <col min="143" max="143" width="24.5703125" customWidth="1"/>
-    <col min="144" max="144" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="15" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="10" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="16.7109375" style="8" customWidth="1"/>
-    <col min="158" max="158" width="18.85546875" style="7" customWidth="1"/>
-    <col min="159" max="159" width="19" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="6.42578125" style="1" customWidth="1"/>
+    <col min="93" max="93" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="21" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="15" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="23.28515625" customWidth="1"/>
+    <col min="101" max="101" width="11" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="26" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="18" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="20" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="7" customWidth="1"/>
+    <col min="129" max="129" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="15.42578125" customWidth="1"/>
+    <col min="132" max="132" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="19" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="6.42578125" style="1" customWidth="1"/>
+    <col min="138" max="138" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="9" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="19.28515625" customWidth="1"/>
+    <col min="148" max="148" width="24.5703125" customWidth="1"/>
+    <col min="149" max="149" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="15" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="10" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="16.7109375" style="5" customWidth="1"/>
+    <col min="163" max="163" width="18.85546875" style="4" customWidth="1"/>
+    <col min="164" max="164" width="19" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="177" max="177" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="187" max="188" width="15.42578125" customWidth="1"/>
-    <col min="189" max="189" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="17" bestFit="1" customWidth="1"/>
-    <col min="200" max="201" width="17" customWidth="1"/>
-    <col min="202" max="202" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="213" max="214" width="14.7109375" customWidth="1"/>
-    <col min="215" max="215" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="226" max="227" width="14.7109375" customWidth="1"/>
-    <col min="228" max="228" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="239" max="240" width="14.7109375" customWidth="1"/>
-    <col min="241" max="241" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="252" max="253" width="14.7109375" customWidth="1"/>
-    <col min="254" max="254" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="19.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="19.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="20.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="282" max="283" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="25" bestFit="1" customWidth="1"/>
-    <col min="285" max="286" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="192" max="193" width="15.42578125" customWidth="1"/>
+    <col min="194" max="194" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="17" bestFit="1" customWidth="1"/>
+    <col min="205" max="206" width="17" customWidth="1"/>
+    <col min="207" max="207" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="218" max="219" width="14.7109375" customWidth="1"/>
+    <col min="220" max="220" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="231" max="232" width="14.7109375" customWidth="1"/>
+    <col min="233" max="233" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="244" max="245" width="14.7109375" customWidth="1"/>
+    <col min="246" max="246" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="257" max="258" width="14.7109375" customWidth="1"/>
+    <col min="259" max="259" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="19.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="287" max="288" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="25" bestFit="1" customWidth="1"/>
+    <col min="290" max="291" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:286" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:291" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AS1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AT1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AU1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AW1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="AX1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BX1" s="15" t="s">
+      <c r="BX1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BY1" s="15" t="s">
+      <c r="BY1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BZ1" s="15" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CJ1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CK1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CL1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="CN1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="CN1" s="15" t="s">
+      <c r="CO1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="CQ1" s="15" t="s">
+      <c r="CR1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="CR1" s="15" t="s">
+      <c r="CS1" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="CS1" s="15" t="s">
+      <c r="CT1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="CT1" s="15" t="s">
+      <c r="CU1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="CU1" s="15" t="s">
+      <c r="CV1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CV1" s="15" t="s">
+      <c r="CW1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="CW1" s="15" t="s">
+      <c r="CX1" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="CY1" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="CZ1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="DA1" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="DB1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CX1" s="15" t="s">
+      <c r="DC1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="CY1" s="15" t="s">
+      <c r="DD1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CZ1" s="15" t="s">
+      <c r="DE1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="DA1" s="15" t="s">
+      <c r="DF1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DB1" s="15" t="s">
+      <c r="DG1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="DC1" s="15" t="s">
+      <c r="DH1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="DD1" s="15" t="s">
+      <c r="DI1" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="DE1" s="15" t="s">
+      <c r="DJ1" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="DF1" s="15" t="s">
+      <c r="DK1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="DG1" s="15" t="s">
+      <c r="DL1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="DH1" s="15" t="s">
+      <c r="DM1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="DI1" s="15" t="s">
+      <c r="DN1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="DJ1" s="15" t="s">
+      <c r="DO1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="DK1" s="15" t="s">
+      <c r="DP1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="DL1" s="15" t="s">
+      <c r="DQ1" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="DM1" s="15" t="s">
+      <c r="DR1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="DN1" s="15" t="s">
+      <c r="DS1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="DO1" s="15" t="s">
+      <c r="DT1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="DP1" s="15" t="s">
+      <c r="DU1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="DQ1" s="15" t="s">
+      <c r="DV1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="DR1" s="15" t="s">
+      <c r="DW1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="DS1" s="15" t="s">
+      <c r="DX1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="DT1" s="15" t="s">
+      <c r="DY1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DZ1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="EA1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="DW1" s="9" t="s">
+      <c r="EB1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="DX1" s="5" t="s">
+      <c r="EC1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="DY1" s="9" t="s">
+      <c r="ED1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="DZ1" s="15" t="s">
+      <c r="EE1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="EA1" s="16" t="s">
+      <c r="EF1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="EB1" s="9" t="s">
+      <c r="EG1" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="EC1" s="9" t="s">
+      <c r="EH1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="ED1" s="5" t="s">
+      <c r="EI1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="EE1" s="9" t="s">
+      <c r="EJ1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EK1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="EG1" s="9" t="s">
+      <c r="EL1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EM1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EN1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EO1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EP1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EQ1" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="ER1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="EN1" s="9" t="s">
+      <c r="ES1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="ET1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="EP1" s="9" t="s">
+      <c r="EU1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="EV1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="EW1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="ES1" s="9" t="s">
+      <c r="EX1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="EY1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="EU1" s="11" t="s">
+      <c r="EZ1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="EV1" s="12" t="s">
+      <c r="FA1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="EW1" s="6" t="s">
+      <c r="FB1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="EX1" s="11" t="s">
+      <c r="FC1" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="EY1" s="21" t="s">
+      <c r="FD1" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="EZ1" s="22" t="s">
+      <c r="FE1" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="FA1" s="22" t="s">
+      <c r="FF1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="FB1" s="22" t="s">
+      <c r="FG1" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="FC1" s="22" t="s">
+      <c r="FH1" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="FD1" s="22" t="s">
+      <c r="FI1" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="FE1" s="21" t="s">
+      <c r="FJ1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="FF1" s="22" t="s">
+      <c r="FK1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="FG1" s="18" t="s">
+      <c r="FL1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="FH1" s="18" t="s">
+      <c r="FM1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="FI1" s="18" t="s">
+      <c r="FN1" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="FJ1" s="18" t="s">
+      <c r="FO1" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="FK1" s="20" t="s">
+      <c r="FP1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="FL1" s="19" t="s">
+      <c r="FQ1" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="FM1" s="19" t="s">
+      <c r="FR1" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="FN1" s="19" t="s">
+      <c r="FS1" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="FO1" s="19" t="s">
+      <c r="FT1" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="FP1" s="19" t="s">
+      <c r="FU1" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="FQ1" s="18" t="s">
+      <c r="FV1" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="FR1" s="18" t="s">
+      <c r="FW1" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="FS1" s="18" t="s">
+      <c r="FX1" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="FT1" s="18" t="s">
+      <c r="FY1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="FU1" s="20" t="s">
+      <c r="FZ1" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="GA1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="GB1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GC1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GD1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="FZ1" s="14" t="s">
+      <c r="GE1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GF1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GG1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GH1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GI1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GJ1" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GK1" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GL1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GM1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GN1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GO1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GP1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GQ1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="GM1" s="14" t="s">
+      <c r="GR1" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GS1" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GT1" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GU1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GV1" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GW1" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GX1" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GY1" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GZ1" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="HA1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="HB1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="HC1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="HD1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="GZ1" s="14" t="s">
+      <c r="HE1" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HF1" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HG1" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HH1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HI1" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HJ1" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HK1" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HL1" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HM1" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HN1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HO1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HP1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HQ1" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="HM1" s="14" t="s">
+      <c r="HR1" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HS1" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HT1" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HU1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HV1" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HW1" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HX1" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HY1" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HZ1" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="IA1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="IB1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="IC1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="ID1" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="HZ1" s="14" t="s">
+      <c r="IE1" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="IA1" s="2" t="s">
+      <c r="IF1" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="IB1" s="2" t="s">
+      <c r="IG1" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="IC1" s="2" t="s">
+      <c r="IH1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="ID1" s="2" t="s">
+      <c r="II1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="IE1" s="2" t="s">
+      <c r="IJ1" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="IF1" s="2" t="s">
+      <c r="IK1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="IG1" s="2" t="s">
+      <c r="IL1" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="IH1" s="2" t="s">
+      <c r="IM1" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="II1" s="2" t="s">
+      <c r="IN1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="IJ1" s="2" t="s">
+      <c r="IO1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="IK1" s="2" t="s">
+      <c r="IP1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="IL1" s="2" t="s">
+      <c r="IQ1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="IM1" s="14" t="s">
+      <c r="IR1" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="IN1" s="2" t="s">
+      <c r="IS1" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="IO1" s="2" t="s">
+      <c r="IT1" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="IP1" s="2" t="s">
+      <c r="IU1" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="IQ1" s="2" t="s">
+      <c r="IV1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="IR1" s="2" t="s">
+      <c r="IW1" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="IS1" s="2" t="s">
+      <c r="IX1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="IT1" s="2" t="s">
+      <c r="IY1" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="IU1" s="2" t="s">
+      <c r="IZ1" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="IV1" s="17" t="s">
+      <c r="JA1" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="IW1" s="17" t="s">
+      <c r="JB1" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="IX1" s="17" t="s">
+      <c r="JC1" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="IY1" s="9" t="s">
+      <c r="JD1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="IZ1" s="17" t="s">
+      <c r="JE1" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="JA1" s="17" t="s">
+      <c r="JF1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="JB1" s="9" t="s">
+      <c r="JG1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="JC1" s="17" t="s">
+      <c r="JH1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="JD1" s="17" t="s">
+      <c r="JI1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="JE1" s="17" t="s">
+      <c r="JJ1" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="JF1" s="17" t="s">
+      <c r="JK1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="JG1" s="17" t="s">
+      <c r="JL1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="JH1" s="17" t="s">
+      <c r="JM1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="JI1" s="17" t="s">
+      <c r="JN1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="JJ1" s="17" t="s">
+      <c r="JO1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="JK1" s="17" t="s">
+      <c r="JP1" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="JL1" s="17" t="s">
+      <c r="JQ1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="JM1" s="17" t="s">
+      <c r="JR1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="JN1" s="17" t="s">
+      <c r="JS1" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="JO1" s="17" t="s">
+      <c r="JT1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="JP1" s="17" t="s">
+      <c r="JU1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="JQ1" s="17" t="s">
+      <c r="JV1" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="JR1" s="17" t="s">
+      <c r="JW1" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="JS1" s="17" t="s">
+      <c r="JX1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="JT1" s="17" t="s">
+      <c r="JY1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="JU1" s="2" t="s">
+      <c r="JZ1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="JV1" s="2" t="s">
+      <c r="KA1" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="JW1" s="2" t="s">
+      <c r="KB1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="JX1" s="2" t="s">
+      <c r="KC1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="JY1" s="2" t="s">
+      <c r="KD1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="JZ1" s="2" t="s">
+      <c r="KE1" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO2"/>
-      <c r="FG2"/>
+    <row r="2" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET2"/>
+      <c r="FL2"/>
     </row>
-    <row r="3" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO3"/>
-      <c r="FG3"/>
+    <row r="3" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET3"/>
+      <c r="FL3"/>
     </row>
-    <row r="4" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO4"/>
-      <c r="FG4"/>
+    <row r="4" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET4"/>
+      <c r="FL4"/>
     </row>
-    <row r="5" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="BD5" s="9"/>
+    <row r="5" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="BD5" s="6"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="2"/>
-      <c r="BG5" s="9"/>
+      <c r="BG5" s="6"/>
       <c r="BH5" s="2"/>
-      <c r="EO5"/>
-      <c r="FG5"/>
-      <c r="FZ5" s="13"/>
-      <c r="GA5"/>
+      <c r="ET5"/>
+      <c r="FL5"/>
+      <c r="GE5" s="8"/>
+      <c r="GF5"/>
     </row>
-    <row r="6" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO6"/>
-      <c r="FG6"/>
-      <c r="FZ6" s="13"/>
-      <c r="GA6"/>
+    <row r="6" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET6"/>
+      <c r="FL6"/>
+      <c r="GE6" s="8"/>
+      <c r="GF6"/>
     </row>
-    <row r="7" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO7"/>
-      <c r="FG7"/>
-      <c r="FZ7" s="13"/>
-      <c r="GA7"/>
+    <row r="7" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET7"/>
+      <c r="FL7"/>
+      <c r="GE7" s="8"/>
+      <c r="GF7"/>
     </row>
-    <row r="8" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO8"/>
-      <c r="FG8"/>
-      <c r="FZ8" s="13"/>
-      <c r="GA8"/>
-      <c r="GM8"/>
-      <c r="GN8"/>
-      <c r="GZ8"/>
-      <c r="HA8"/>
-      <c r="HM8"/>
-      <c r="HN8"/>
-      <c r="HZ8"/>
-      <c r="IA8"/>
-      <c r="IM8"/>
-      <c r="IN8"/>
+    <row r="8" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET8"/>
+      <c r="FL8"/>
+      <c r="GE8" s="8"/>
+      <c r="GF8"/>
+      <c r="GR8"/>
+      <c r="GS8"/>
+      <c r="HE8"/>
+      <c r="HF8"/>
+      <c r="HR8"/>
+      <c r="HS8"/>
+      <c r="IE8"/>
+      <c r="IF8"/>
+      <c r="IR8"/>
+      <c r="IS8"/>
     </row>
-    <row r="9" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO9"/>
-      <c r="FG9"/>
-      <c r="FZ9" s="13"/>
-      <c r="GA9"/>
+    <row r="9" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET9"/>
+      <c r="FL9"/>
+      <c r="GE9" s="8"/>
+      <c r="GF9"/>
     </row>
-    <row r="10" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO10"/>
-      <c r="FG10"/>
-      <c r="FZ10" s="13"/>
-      <c r="GA10"/>
+    <row r="10" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET10"/>
+      <c r="FL10"/>
+      <c r="GE10" s="8"/>
+      <c r="GF10"/>
     </row>
-    <row r="11" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO11"/>
-      <c r="FG11"/>
+    <row r="11" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET11"/>
+      <c r="FL11"/>
     </row>
-    <row r="12" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO12"/>
-      <c r="FG12"/>
+    <row r="12" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET12"/>
+      <c r="FL12"/>
     </row>
-    <row r="13" spans="1:286" x14ac:dyDescent="0.25">
-      <c r="EO13"/>
-      <c r="FG13"/>
+    <row r="13" spans="1:291" x14ac:dyDescent="0.25">
+      <c r="ET13"/>
+      <c r="FL13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Export/Sari_Cases_17.xlsx
+++ b/Template/Export/Sari_Cases_17.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907075E-FEAA-4EB8-93B9-CFE5814F7C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="294">
   <si>
     <t>ID</t>
   </si>
@@ -897,12 +898,24 @@
   </si>
   <si>
     <t>Dysgeusia</t>
+  </si>
+  <si>
+    <t>condition_discharge_evolution</t>
+  </si>
+  <si>
+    <t>condition_discharge_date_evolution</t>
+  </si>
+  <si>
+    <t>condition_discharge_other_evolution</t>
+  </si>
+  <si>
+    <t>death_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
@@ -935,7 +948,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,6 +991,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -991,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1052,6 +1071,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,7 +1104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1152,6 +1179,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1187,6 +1231,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1362,15 +1423,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KE13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:KI13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -1512,150 +1573,154 @@
     <col min="140" max="140" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="9" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="19.28515625" customWidth="1"/>
-    <col min="148" max="148" width="24.5703125" customWidth="1"/>
-    <col min="149" max="149" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="15" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="12.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="10" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="16.7109375" style="5" customWidth="1"/>
-    <col min="163" max="163" width="18.85546875" style="4" customWidth="1"/>
-    <col min="164" max="164" width="19" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="192" max="193" width="15.42578125" customWidth="1"/>
-    <col min="194" max="194" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="20.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="17" bestFit="1" customWidth="1"/>
-    <col min="205" max="206" width="17" customWidth="1"/>
-    <col min="207" max="207" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="218" max="219" width="14.7109375" customWidth="1"/>
-    <col min="220" max="220" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="231" max="232" width="14.7109375" customWidth="1"/>
-    <col min="233" max="233" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="244" max="245" width="14.7109375" customWidth="1"/>
-    <col min="246" max="246" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="257" max="258" width="14.7109375" customWidth="1"/>
-    <col min="259" max="259" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="19.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="32.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="38.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="39.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.85546875" style="29" customWidth="1"/>
+    <col min="147" max="147" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="9" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="19.28515625" customWidth="1"/>
+    <col min="152" max="152" width="24.5703125" customWidth="1"/>
+    <col min="153" max="153" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="15" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="10" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="16.7109375" style="5" customWidth="1"/>
+    <col min="167" max="167" width="18.85546875" style="4" customWidth="1"/>
+    <col min="168" max="168" width="19" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="15.42578125" customWidth="1"/>
+    <col min="198" max="198" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="17" bestFit="1" customWidth="1"/>
+    <col min="209" max="210" width="17" customWidth="1"/>
+    <col min="211" max="211" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="222" max="223" width="14.7109375" customWidth="1"/>
+    <col min="224" max="224" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="235" max="236" width="14.7109375" customWidth="1"/>
+    <col min="237" max="237" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="14.7109375" customWidth="1"/>
+    <col min="250" max="250" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="14.7109375" customWidth="1"/>
+    <col min="263" max="263" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="19.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="274" max="274" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="23.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="287" max="288" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="25" bestFit="1" customWidth="1"/>
-    <col min="290" max="291" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="22.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="291" max="292" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="25" bestFit="1" customWidth="1"/>
+    <col min="294" max="295" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:291" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:295" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2082,528 +2147,540 @@
       <c r="EL1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="EM1" s="11" t="s">
+      <c r="EM1" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="EN1" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="EO1" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="EP1" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="EQ1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="EN1" s="11" t="s">
+      <c r="ER1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="EO1" s="11" t="s">
+      <c r="ES1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="EP1" s="9" t="s">
+      <c r="ET1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="EQ1" s="9" t="s">
+      <c r="EU1" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="ER1" s="9" t="s">
+      <c r="EV1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="ES1" s="10" t="s">
+      <c r="EW1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="ET1" s="9" t="s">
+      <c r="EX1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="EU1" s="10" t="s">
+      <c r="EY1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="EV1" s="9" t="s">
+      <c r="EZ1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="EW1" s="9" t="s">
+      <c r="FA1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="EX1" s="10" t="s">
+      <c r="FB1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="EY1" s="11" t="s">
+      <c r="FC1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="EZ1" s="16" t="s">
+      <c r="FD1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="FA1" s="17" t="s">
+      <c r="FE1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="FB1" s="18" t="s">
+      <c r="FF1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="FC1" s="16" t="s">
+      <c r="FG1" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="FD1" s="19" t="s">
+      <c r="FH1" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="FE1" s="20" t="s">
+      <c r="FI1" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="FF1" s="20" t="s">
+      <c r="FJ1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="FG1" s="20" t="s">
+      <c r="FK1" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="FH1" s="20" t="s">
+      <c r="FL1" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="FI1" s="20" t="s">
+      <c r="FM1" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="FJ1" s="19" t="s">
+      <c r="FN1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="FK1" s="20" t="s">
+      <c r="FO1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="FL1" s="21" t="s">
+      <c r="FP1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="FM1" s="21" t="s">
+      <c r="FQ1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="FN1" s="21" t="s">
+      <c r="FR1" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="FO1" s="21" t="s">
+      <c r="FS1" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="FP1" s="22" t="s">
+      <c r="FT1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="FQ1" s="23" t="s">
+      <c r="FU1" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="FR1" s="23" t="s">
+      <c r="FV1" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="FS1" s="23" t="s">
+      <c r="FW1" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="FT1" s="23" t="s">
+      <c r="FX1" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="FU1" s="23" t="s">
+      <c r="FY1" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="FV1" s="21" t="s">
+      <c r="FZ1" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="FW1" s="21" t="s">
+      <c r="GA1" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="FX1" s="21" t="s">
+      <c r="GB1" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="FY1" s="21" t="s">
+      <c r="GC1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="FZ1" s="22" t="s">
+      <c r="GD1" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="GA1" s="9" t="s">
+      <c r="GE1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="GB1" s="9" t="s">
+      <c r="GF1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="GC1" s="9" t="s">
+      <c r="GG1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="GD1" s="9" t="s">
+      <c r="GH1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="GE1" s="24" t="s">
+      <c r="GI1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="GF1" s="9" t="s">
+      <c r="GJ1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="GG1" s="9" t="s">
+      <c r="GK1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="GH1" s="9" t="s">
+      <c r="GL1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="GI1" s="9" t="s">
+      <c r="GM1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="GJ1" s="9" t="s">
+      <c r="GN1" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="GK1" s="9" t="s">
+      <c r="GO1" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="GL1" s="9" t="s">
+      <c r="GP1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="GM1" s="9" t="s">
+      <c r="GQ1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="GN1" s="9" t="s">
+      <c r="GR1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="GO1" s="9" t="s">
+      <c r="GS1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="GP1" s="9" t="s">
+      <c r="GT1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="GQ1" s="9" t="s">
+      <c r="GU1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="GR1" s="24" t="s">
+      <c r="GV1" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="GS1" s="9" t="s">
+      <c r="GW1" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="GT1" s="9" t="s">
+      <c r="GX1" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="GU1" s="9" t="s">
+      <c r="GY1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="GV1" s="9" t="s">
+      <c r="GZ1" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="GW1" s="9" t="s">
+      <c r="HA1" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="GX1" s="9" t="s">
+      <c r="HB1" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="GY1" s="9" t="s">
+      <c r="HC1" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="GZ1" s="9" t="s">
+      <c r="HD1" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="HA1" s="9" t="s">
+      <c r="HE1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="9" t="s">
+      <c r="HF1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="HC1" s="9" t="s">
+      <c r="HG1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="HD1" s="9" t="s">
+      <c r="HH1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="HE1" s="24" t="s">
+      <c r="HI1" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="HF1" s="9" t="s">
+      <c r="HJ1" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="HG1" s="9" t="s">
+      <c r="HK1" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="HH1" s="9" t="s">
+      <c r="HL1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="HI1" s="9" t="s">
+      <c r="HM1" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="HJ1" s="9" t="s">
+      <c r="HN1" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="HK1" s="9" t="s">
+      <c r="HO1" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="HL1" s="9" t="s">
+      <c r="HP1" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="HM1" s="9" t="s">
+      <c r="HQ1" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="HN1" s="9" t="s">
+      <c r="HR1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="HO1" s="9" t="s">
+      <c r="HS1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="HP1" s="9" t="s">
+      <c r="HT1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="HQ1" s="9" t="s">
+      <c r="HU1" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="HR1" s="24" t="s">
+      <c r="HV1" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="HS1" s="9" t="s">
+      <c r="HW1" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="HT1" s="9" t="s">
+      <c r="HX1" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="HU1" s="9" t="s">
+      <c r="HY1" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="HV1" s="9" t="s">
+      <c r="HZ1" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="HW1" s="9" t="s">
+      <c r="IA1" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="HX1" s="9" t="s">
+      <c r="IB1" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="HY1" s="9" t="s">
+      <c r="IC1" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="HZ1" s="9" t="s">
+      <c r="ID1" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="IA1" s="9" t="s">
+      <c r="IE1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="IB1" s="9" t="s">
+      <c r="IF1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="IC1" s="9" t="s">
+      <c r="IG1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="ID1" s="9" t="s">
+      <c r="IH1" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="IE1" s="24" t="s">
+      <c r="II1" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="IF1" s="9" t="s">
+      <c r="IJ1" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="IG1" s="9" t="s">
+      <c r="IK1" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="IH1" s="9" t="s">
+      <c r="IL1" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="II1" s="9" t="s">
+      <c r="IM1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="IJ1" s="9" t="s">
+      <c r="IN1" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="IK1" s="9" t="s">
+      <c r="IO1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="IL1" s="9" t="s">
+      <c r="IP1" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" s="9" t="s">
+      <c r="IQ1" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" s="9" t="s">
+      <c r="IR1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="IO1" s="9" t="s">
+      <c r="IS1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="IP1" s="9" t="s">
+      <c r="IT1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="IQ1" s="9" t="s">
+      <c r="IU1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="IR1" s="24" t="s">
+      <c r="IV1" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="IS1" s="9" t="s">
+      <c r="IW1" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="IT1" s="9" t="s">
+      <c r="IX1" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="IU1" s="9" t="s">
+      <c r="IY1" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="IV1" s="9" t="s">
+      <c r="IZ1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="IW1" s="9" t="s">
+      <c r="JA1" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="IX1" s="9" t="s">
+      <c r="JB1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="IY1" s="9" t="s">
+      <c r="JC1" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="IZ1" s="9" t="s">
+      <c r="JD1" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="JA1" s="25" t="s">
+      <c r="JE1" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="JB1" s="25" t="s">
+      <c r="JF1" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="JC1" s="25" t="s">
+      <c r="JG1" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="JD1" s="10" t="s">
+      <c r="JH1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="JE1" s="25" t="s">
+      <c r="JI1" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="JF1" s="25" t="s">
+      <c r="JJ1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="JG1" s="10" t="s">
+      <c r="JK1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="JH1" s="25" t="s">
+      <c r="JL1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="JI1" s="25" t="s">
+      <c r="JM1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="JJ1" s="25" t="s">
+      <c r="JN1" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="JK1" s="25" t="s">
+      <c r="JO1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="JL1" s="25" t="s">
+      <c r="JP1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="JM1" s="25" t="s">
+      <c r="JQ1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="JN1" s="25" t="s">
+      <c r="JR1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="JO1" s="25" t="s">
+      <c r="JS1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="JP1" s="25" t="s">
+      <c r="JT1" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="JQ1" s="25" t="s">
+      <c r="JU1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="JR1" s="25" t="s">
+      <c r="JV1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="JS1" s="25" t="s">
+      <c r="JW1" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="JT1" s="25" t="s">
+      <c r="JX1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="JU1" s="25" t="s">
+      <c r="JY1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="JV1" s="25" t="s">
+      <c r="JZ1" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="JW1" s="25" t="s">
+      <c r="KA1" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="JX1" s="25" t="s">
+      <c r="KB1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="JY1" s="25" t="s">
+      <c r="KC1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="JZ1" s="9" t="s">
+      <c r="KD1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="KA1" s="9" t="s">
+      <c r="KE1" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="KB1" s="9" t="s">
+      <c r="KF1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="KC1" s="9" t="s">
+      <c r="KG1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="KD1" s="9" t="s">
+      <c r="KH1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="KE1" s="9" t="s">
+      <c r="KI1" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET2"/>
-      <c r="FL2"/>
+    <row r="2" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX2"/>
+      <c r="FP2"/>
     </row>
-    <row r="3" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET3"/>
-      <c r="FL3"/>
+    <row r="3" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX3"/>
+      <c r="FP3"/>
     </row>
-    <row r="4" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET4"/>
-      <c r="FL4"/>
+    <row r="4" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX4"/>
+      <c r="FP4"/>
     </row>
-    <row r="5" spans="1:291" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:295" x14ac:dyDescent="0.25">
       <c r="BD5" s="6"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="6"/>
       <c r="BH5" s="2"/>
-      <c r="ET5"/>
-      <c r="FL5"/>
-      <c r="GE5" s="8"/>
-      <c r="GF5"/>
+      <c r="EX5"/>
+      <c r="FP5"/>
+      <c r="GI5" s="8"/>
+      <c r="GJ5"/>
     </row>
-    <row r="6" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET6"/>
-      <c r="FL6"/>
-      <c r="GE6" s="8"/>
-      <c r="GF6"/>
+    <row r="6" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX6"/>
+      <c r="FP6"/>
+      <c r="GI6" s="8"/>
+      <c r="GJ6"/>
     </row>
-    <row r="7" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET7"/>
-      <c r="FL7"/>
-      <c r="GE7" s="8"/>
-      <c r="GF7"/>
+    <row r="7" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX7"/>
+      <c r="FP7"/>
+      <c r="GI7" s="8"/>
+      <c r="GJ7"/>
     </row>
-    <row r="8" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET8"/>
-      <c r="FL8"/>
-      <c r="GE8" s="8"/>
-      <c r="GF8"/>
-      <c r="GR8"/>
-      <c r="GS8"/>
-      <c r="HE8"/>
-      <c r="HF8"/>
-      <c r="HR8"/>
-      <c r="HS8"/>
-      <c r="IE8"/>
-      <c r="IF8"/>
-      <c r="IR8"/>
-      <c r="IS8"/>
+    <row r="8" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX8"/>
+      <c r="FP8"/>
+      <c r="GI8" s="8"/>
+      <c r="GJ8"/>
+      <c r="GV8"/>
+      <c r="GW8"/>
+      <c r="HI8"/>
+      <c r="HJ8"/>
+      <c r="HV8"/>
+      <c r="HW8"/>
+      <c r="II8"/>
+      <c r="IJ8"/>
+      <c r="IV8"/>
+      <c r="IW8"/>
     </row>
-    <row r="9" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET9"/>
-      <c r="FL9"/>
-      <c r="GE9" s="8"/>
-      <c r="GF9"/>
+    <row r="9" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX9"/>
+      <c r="FP9"/>
+      <c r="GI9" s="8"/>
+      <c r="GJ9"/>
     </row>
-    <row r="10" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET10"/>
-      <c r="FL10"/>
-      <c r="GE10" s="8"/>
-      <c r="GF10"/>
+    <row r="10" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX10"/>
+      <c r="FP10"/>
+      <c r="GI10" s="8"/>
+      <c r="GJ10"/>
     </row>
-    <row r="11" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET11"/>
-      <c r="FL11"/>
+    <row r="11" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX11"/>
+      <c r="FP11"/>
     </row>
-    <row r="12" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET12"/>
-      <c r="FL12"/>
+    <row r="12" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX12"/>
+      <c r="FP12"/>
     </row>
-    <row r="13" spans="1:291" x14ac:dyDescent="0.25">
-      <c r="ET13"/>
-      <c r="FL13"/>
+    <row r="13" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="EX13"/>
+      <c r="FP13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
